--- a/reports/Relatorio-PedroBarbeiro-2221986.xlsx
+++ b/reports/Relatorio-PedroBarbeiro-2221986.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/Internal/PRJ/Relatorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cinemagic\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{2C7884A4-F429-D044-8516-7145D009D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE2559A-E31F-471B-A52B-A9A16959520B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0889F-02FA-41B9-BF72-E3182FADBDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="AQyoft8BQ63bv8EtvKjGLkxi8ri3zlnCAL81Cxyf1uQpe9DckLQZMrcM9YGhwCDKeibKw2dEnB4kZ1+mrtl6cw==" workbookSaltValue="hjW4qeGCzgu7SOBZl7mTfQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27820" windowHeight="19920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rel. Individual Prj AI 2023-24" sheetId="3" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Miguel Godinho Rodrigues</t>
-  </si>
-  <si>
     <t>Contributos Individuais:</t>
   </si>
   <si>
@@ -78,13 +75,7 @@
     <t>2º Elemento</t>
   </si>
   <si>
-    <t>Tiago Martins Rodrigues</t>
-  </si>
-  <si>
     <t>3º Elemento</t>
-  </si>
-  <si>
-    <t>Sérgio Baptista</t>
   </si>
   <si>
     <t>Instruções</t>
@@ -303,6 +294,15 @@
   </si>
   <si>
     <t>FIM</t>
+  </si>
+  <si>
+    <t>Pedro Barbeiro</t>
+  </si>
+  <si>
+    <t>Diogo Abegão</t>
+  </si>
+  <si>
+    <t>João Parreira</t>
   </si>
 </sst>
 </file>
@@ -682,6 +682,37 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -695,9 +726,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -705,34 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,7 +1049,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21.95" customHeight="1"/>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>1</v>
@@ -1100,19 +1100,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>2231964</v>
+        <v>2221986</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="56"/>
+      <c r="G4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="47"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -1120,22 +1120,22 @@
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19">
         <f>IF(D4&lt;&gt;"",D4,"")</f>
-        <v>2231964</v>
+        <v>2221986</v>
       </c>
       <c r="K5" s="20">
         <f>IF(D6&lt;&gt;"",D6,"")</f>
-        <v>2211068</v>
+        <v>2221985</v>
       </c>
       <c r="L5" s="20">
         <f>IF(D7&lt;&gt;"",D7,"")</f>
-        <v>2222348</v>
+        <v>2222184</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>4</v>
@@ -1144,33 +1144,33 @@
     <row r="6" spans="1:14" ht="21.95" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>2211068</v>
+        <v>2221985</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="58"/>
+      <c r="G6" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="49"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19" t="str">
         <f>IF(G4&lt;&gt;"",G4,"")</f>
-        <v>Miguel Godinho Rodrigues</v>
+        <v>Pedro Barbeiro</v>
       </c>
       <c r="K6" s="20" t="str">
         <f>IF(G6&lt;&gt;"",G6,"")</f>
-        <v>Tiago Martins Rodrigues</v>
+        <v>João Parreira</v>
       </c>
       <c r="L6" s="20" t="str">
         <f>IF(G7&lt;&gt;"",G7,"")</f>
-        <v>Sérgio Baptista</v>
+        <v>Diogo Abegão</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>5</v>
@@ -1178,30 +1178,30 @@
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1">
       <c r="B7" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="44">
-        <v>2222348</v>
+        <v>2222184</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="58"/>
+      <c r="G7" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="49"/>
       <c r="I7" s="21"/>
       <c r="J7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="5.0999999999999996" customHeight="1"/>
@@ -1220,128 +1220,128 @@
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="29.1" customHeight="1">
-      <c r="B10" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
+      <c r="B10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="36.950000000000003" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="36.950000000000003" customHeight="1">
       <c r="B12" s="21"/>
       <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="24.95" customHeight="1">
       <c r="B13" s="21"/>
       <c r="C13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:14" ht="24.95" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1">
       <c r="B15" s="21"/>
       <c r="C15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="2:16" ht="29.1" customHeight="1">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1358,76 +1358,76 @@
     <row r="18" spans="2:16" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="26"/>
       <c r="C18" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="33"/>
       <c r="N18" s="36"/>
     </row>
     <row r="19" spans="2:16" s="34" customFormat="1" ht="44.1" customHeight="1">
       <c r="B19" s="26"/>
       <c r="C19" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="33"/>
       <c r="N19" s="36"/>
     </row>
     <row r="20" spans="2:16" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="B20" s="26"/>
       <c r="C20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="33"/>
       <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:16" s="34" customFormat="1" ht="44.1" customHeight="1">
       <c r="B21" s="26"/>
       <c r="C21" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="33"/>
       <c r="N21" s="36"/>
     </row>
@@ -1435,44 +1435,44 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:16" customFormat="1" ht="53.1" customHeight="1">
-      <c r="B23" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="B23" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
       <c r="N23" s="43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="2:16" ht="39" customHeight="1">
       <c r="B24" s="25"/>
-      <c r="C24" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="C24" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="26"/>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M24" s="27"/>
       <c r="N24" s="7">
@@ -1485,15 +1485,15 @@
       </c>
     </row>
     <row r="25" spans="2:16" customFormat="1" ht="53.1" customHeight="1">
-      <c r="B25" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="B25" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
@@ -1506,23 +1506,23 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="C26" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="26"/>
       <c r="J26" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="7">
@@ -1538,23 +1538,23 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="C27" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="26"/>
       <c r="J27" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="38">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="L27" s="38">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="7">
@@ -1570,23 +1570,23 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="26"/>
       <c r="J28" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K28" s="38">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="L28" s="38">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="7">
@@ -1602,23 +1602,23 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="C29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="26"/>
       <c r="J29" s="37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K29" s="38">
+        <v>50</v>
+      </c>
+      <c r="L29" s="38">
         <v>200</v>
-      </c>
-      <c r="L29" s="38">
-        <v>100</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="7">
@@ -1634,20 +1634,20 @@
       <c r="B30" s="10">
         <v>5</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="C30" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="26"/>
       <c r="J30" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K30" s="38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L30" s="38">
         <v>100</v>
@@ -1666,23 +1666,23 @@
       <c r="B31" s="10">
         <v>6</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="C31" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="26"/>
       <c r="J31" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K31" s="38">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L31" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M31" s="27"/>
       <c r="N31" s="7">
@@ -1698,23 +1698,23 @@
       <c r="B32" s="10">
         <v>7</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
+      <c r="C32" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="26"/>
       <c r="J32" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="38">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L32" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M32" s="27"/>
       <c r="N32" s="7">
@@ -1730,23 +1730,23 @@
       <c r="B33" s="10">
         <v>8</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="C33" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="26"/>
       <c r="J33" s="37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K33" s="38">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L33" s="38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M33" s="27"/>
       <c r="N33" s="7">
@@ -1761,47 +1761,47 @@
     <row r="34" spans="2:16" ht="14.1" customHeight="1"/>
     <row r="35" spans="2:16" ht="14.1" customHeight="1"/>
     <row r="36" spans="2:16" ht="36" customHeight="1">
-      <c r="B36" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
+      <c r="B36" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:16" ht="21.95" customHeight="1">
       <c r="B37" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
     </row>
     <row r="38" spans="2:16" ht="231" customHeight="1">
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
       <c r="M38" s="27"/>
     </row>
     <row r="39" spans="2:16" ht="15" customHeight="1"/>
     <row r="40" spans="2:16" ht="15" customHeight="1"/>
     <row r="41" spans="2:16" s="29" customFormat="1" ht="63" customHeight="1">
       <c r="B41" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="30"/>
       <c r="N41" s="31"/>
@@ -1810,17 +1810,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zzk/EeA/ER/rN4MgXmIQ+GX8lQSdz2pvSzVNmJqoAX9MMaDh7Z/lBW3Bg+QTiadrmMhjwgzLoXUkyBk0s81FPw==" saltValue="OGDj2AZICzKFm9SjM5xOfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="27">
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="D20:L20"/>
     <mergeCell ref="B38:L38"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D16:L16"/>
@@ -1837,6 +1826,17 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B10:L10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="J26:L33">
@@ -2019,9 +2019,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB931E7-C241-4308-BCC0-72E987205FEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB931E7-C241-4308-BCC0-72E987205FEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C41841-A5F3-4EDF-B6D4-8D5F3332806F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C41841-A5F3-4EDF-B6D4-8D5F3332806F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5925a40f-0a2a-4b80-a160-96527d703ea6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>